--- a/database/capsules_spreadsheets/Spring-2022-Capsules.xlsx
+++ b/database/capsules_spreadsheets/Spring-2022-Capsules.xlsx
@@ -1,52 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\docfilms-github\site\database\capsules_spreadsheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74F60A9-EDA8-4618-B367-4AE38584F545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Fall 2021" sheetId="1" r:id="rId3"/>
+    <sheet name="Fall 2021" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="Examples">'Fall 2021'!$A$3:$R$3</definedName>
     <definedName name="LOCKED_CAPSULES">'Fall 2021'!$A$1:$R$70</definedName>
-    <definedName name="Examples">'Fall 2021'!$A$3:$R$3</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="H1">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">Use _underscores_ to denote italics.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Use _underscores_ to denote italics.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="I1">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">Should only include the number of minutes. (a.k.a. digits only, no "min")</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Should only include the number of minutes. (a.k.a. digits only, no "min")</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="J1">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t xml:space="preserve">Only "16," "35," and "DCP" are recognized. Please exclude "mm"</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Only "16," "35," and "DCP" are recognized. Please exclude "mm"</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="L1">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <t xml:space="preserve">Please follow the format "7:00 PM" and avoid combining both show times into one cell. (a.k.a. 7:00 PM in showtime1, 9:00 PM in showtime 2 etc.)</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Please follow the format "7:00 PM" and avoid combining both show times into one cell. (a.k.a. 7:00 PM in showtime1, 9:00 PM in showtime 2 etc.)</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="N1">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
-        <t xml:space="preserve">Please follow the format "7:00 PM" and avoid combining both show times into one cell. (a.k.a. 7:00 PM in showtime1, 9:00 PM in showtime 2 etc.)</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Please follow the format "7:00 PM" and avoid combining both show times into one cell. (a.k.a. 7:00 PM in showtime1, 9:00 PM in showtime 2 etc.)</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="P1">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
-        <t xml:space="preserve">Please follow the format "7:00 PM" and avoid combining both show times into one cell. (a.k.a. 7:00 PM in showtime1, 9:00 PM in showtime 2 etc.)</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Please follow the format "7:00 PM" and avoid combining both show times into one cell. (a.k.a. 7:00 PM in showtime1, 9:00 PM in showtime 2 etc.)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -1164,61 +1228,66 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="h:mm am/pm"/>
-    <numFmt numFmtId="166" formatCode="m/d"/>
-    <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="168" formatCode="m/d/yy"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="m/d"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF262626"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF3C4043"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1226,7 +1295,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1260,363 +1329,718 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="88">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="11">
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB6D7A8"/>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB6D7A8"/>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB6D7A8"/>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB6D7A8"/>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB6D7A8"/>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE06666"/>
+          <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFE06666"/>
-          <bgColor rgb="FFE06666"/>
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:U84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N72" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Q73" sqref="Q73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.13"/>
-    <col customWidth="1" min="2" max="2" width="7.25"/>
-    <col customWidth="1" min="3" max="3" width="10.5"/>
-    <col customWidth="1" min="4" max="4" width="10.88"/>
-    <col customWidth="1" min="5" max="5" width="5.13"/>
-    <col customWidth="1" min="6" max="6" width="15.88"/>
-    <col customWidth="1" min="7" max="7" width="6.75"/>
-    <col customWidth="1" min="8" max="8" width="42.13"/>
-    <col customWidth="1" min="9" max="9" width="8.25"/>
-    <col customWidth="1" min="10" max="10" width="8.88"/>
-    <col customWidth="1" min="11" max="11" width="12.25"/>
-    <col customWidth="1" min="12" max="12" width="11.63"/>
-    <col customWidth="1" min="13" max="14" width="12.75"/>
-    <col customWidth="1" min="15" max="16" width="9.0"/>
-    <col customWidth="1" min="17" max="18" width="39.13"/>
-    <col customWidth="1" min="19" max="21" width="23.13"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" customWidth="1"/>
+    <col min="8" max="8" width="42.109375" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="14" width="12.77734375" customWidth="1"/>
+    <col min="15" max="16" width="9" customWidth="1"/>
+    <col min="17" max="18" width="39.109375" customWidth="1"/>
+    <col min="19" max="21" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" customHeight="1">
+    <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1681,12 +2105,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="65.25" customHeight="1">
+    <row r="2" spans="1:21" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="5">
-        <f t="shared" ref="B2:B4" si="1">len(H2)</f>
+        <f t="shared" ref="B2:B4" si="0">LEN(H2)</f>
         <v>495</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1702,7 +2126,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="10">
-        <v>1990.0</v>
+        <v>1990</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>26</v>
@@ -1714,10 +2138,10 @@
         <v>28</v>
       </c>
       <c r="K2" s="14">
-        <v>42457.0</v>
+        <v>42457</v>
       </c>
       <c r="L2" s="15">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -1729,12 +2153,12 @@
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
     </row>
-    <row r="3" ht="101.25" customHeight="1">
+    <row r="3" spans="1:21" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>477</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1750,7 +2174,7 @@
         <v>31</v>
       </c>
       <c r="G3" s="19">
-        <v>1934.0</v>
+        <v>1934</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>32</v>
@@ -1762,10 +2186,10 @@
         <v>34</v>
       </c>
       <c r="K3" s="14">
-        <v>42458.0</v>
+        <v>42458</v>
       </c>
       <c r="L3" s="15">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
@@ -1777,12 +2201,12 @@
       <c r="T3" s="21"/>
       <c r="U3" s="21"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>505</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -1798,7 +2222,7 @@
         <v>38</v>
       </c>
       <c r="G4" s="26">
-        <v>1968.0</v>
+        <v>1968</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>39</v>
@@ -1810,10 +2234,10 @@
         <v>41</v>
       </c>
       <c r="K4" s="28">
-        <v>44648.0</v>
+        <v>44648</v>
       </c>
       <c r="L4" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
@@ -1833,7 +2257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>46</v>
       </c>
@@ -1845,7 +2269,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="26">
-        <v>1981.0</v>
+        <v>1981</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>47</v>
@@ -1857,10 +2281,10 @@
         <v>49</v>
       </c>
       <c r="K5" s="28">
-        <v>44648.0</v>
+        <v>44648</v>
       </c>
       <c r="L5" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
@@ -1880,7 +2304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>50</v>
       </c>
@@ -1892,7 +2316,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="26">
-        <v>1995.0</v>
+        <v>1995</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>51</v>
@@ -1904,10 +2328,10 @@
         <v>41</v>
       </c>
       <c r="K6" s="28">
-        <v>44648.0</v>
+        <v>44648</v>
       </c>
       <c r="L6" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
@@ -1927,12 +2351,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="5">
-        <f t="shared" ref="B7:B34" si="2">len(H7)</f>
+        <f t="shared" ref="B7:B34" si="1">LEN(H7)</f>
         <v>442</v>
       </c>
       <c r="C7" s="31" t="s">
@@ -1948,7 +2372,7 @@
         <v>56</v>
       </c>
       <c r="G7" s="26">
-        <v>1992.0</v>
+        <v>1992</v>
       </c>
       <c r="H7" s="22" t="s">
         <v>57</v>
@@ -1960,10 +2384,10 @@
         <v>41</v>
       </c>
       <c r="K7" s="28">
-        <v>44649.0</v>
+        <v>44649</v>
       </c>
       <c r="L7" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
@@ -1980,12 +2404,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>455</v>
       </c>
       <c r="C8" s="23"/>
@@ -1999,7 +2423,7 @@
         <v>63</v>
       </c>
       <c r="G8" s="26">
-        <v>1964.0</v>
+        <v>1964</v>
       </c>
       <c r="H8" s="25" t="s">
         <v>64</v>
@@ -2011,10 +2435,10 @@
         <v>28</v>
       </c>
       <c r="K8" s="28">
-        <v>44651.0</v>
+        <v>44651</v>
       </c>
       <c r="L8" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
@@ -2032,12 +2456,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>69</v>
       </c>
       <c r="B9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>447</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -2053,7 +2477,7 @@
         <v>71</v>
       </c>
       <c r="G9" s="26">
-        <v>1982.0</v>
+        <v>1982</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>72</v>
@@ -2065,10 +2489,10 @@
         <v>28</v>
       </c>
       <c r="K9" s="28">
-        <v>44651.0</v>
+        <v>44651</v>
       </c>
       <c r="L9" s="29">
-        <v>0.8958333333333334</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
@@ -2086,12 +2510,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>76</v>
       </c>
       <c r="B10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>448</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -2107,7 +2531,7 @@
         <v>78</v>
       </c>
       <c r="G10" s="26">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>79</v>
@@ -2119,10 +2543,10 @@
         <v>41</v>
       </c>
       <c r="K10" s="28">
-        <v>44652.0</v>
+        <v>44652</v>
       </c>
       <c r="L10" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
@@ -2140,12 +2564,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:21" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>83</v>
       </c>
       <c r="B11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>304</v>
       </c>
       <c r="C11" s="23"/>
@@ -2155,7 +2579,7 @@
         <v>84</v>
       </c>
       <c r="G11" s="26">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>85</v>
@@ -2167,10 +2591,10 @@
         <v>41</v>
       </c>
       <c r="K11" s="28">
-        <v>44653.0</v>
+        <v>44653</v>
       </c>
       <c r="L11" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
@@ -2188,12 +2612,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>448</v>
       </c>
       <c r="C12" s="23" t="s">
@@ -2209,7 +2633,7 @@
         <v>91</v>
       </c>
       <c r="G12" s="22">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="H12" s="38" t="s">
         <v>92</v>
@@ -2221,10 +2645,10 @@
         <v>41</v>
       </c>
       <c r="K12" s="28">
-        <v>44655.0</v>
+        <v>44655</v>
       </c>
       <c r="L12" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M12" s="35"/>
       <c r="N12" s="35"/>
@@ -2244,12 +2668,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>94</v>
       </c>
       <c r="B13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>449</v>
       </c>
       <c r="C13" s="41" t="s">
@@ -2265,7 +2689,7 @@
         <v>95</v>
       </c>
       <c r="G13" s="45">
-        <v>1992.0</v>
+        <v>1992</v>
       </c>
       <c r="H13" s="46" t="s">
         <v>96</v>
@@ -2277,10 +2701,10 @@
         <v>28</v>
       </c>
       <c r="K13" s="48">
-        <v>44656.0</v>
+        <v>44656</v>
       </c>
       <c r="L13" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M13" s="30"/>
       <c r="N13" s="30"/>
@@ -2298,12 +2722,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>98</v>
       </c>
       <c r="B14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>456</v>
       </c>
       <c r="C14" s="23"/>
@@ -2317,7 +2741,7 @@
         <v>99</v>
       </c>
       <c r="G14" s="26">
-        <v>1997.0</v>
+        <v>1997</v>
       </c>
       <c r="H14" s="50" t="s">
         <v>100</v>
@@ -2329,10 +2753,10 @@
         <v>28</v>
       </c>
       <c r="K14" s="28">
-        <v>44658.0</v>
+        <v>44658</v>
       </c>
       <c r="L14" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M14" s="51"/>
       <c r="N14" s="51"/>
@@ -2350,12 +2774,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>447</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -2367,7 +2791,7 @@
         <v>103</v>
       </c>
       <c r="G15" s="26">
-        <v>1982.0</v>
+        <v>1982</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>104</v>
@@ -2379,10 +2803,10 @@
         <v>49</v>
       </c>
       <c r="K15" s="28">
-        <v>44658.0</v>
+        <v>44658</v>
       </c>
       <c r="L15" s="29">
-        <v>0.8958333333333334</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="M15" s="53"/>
       <c r="N15" s="53"/>
@@ -2400,12 +2824,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>106</v>
       </c>
       <c r="B16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>455</v>
       </c>
       <c r="C16" s="23"/>
@@ -2419,7 +2843,7 @@
         <v>78</v>
       </c>
       <c r="G16" s="26">
-        <v>1994.0</v>
+        <v>1994</v>
       </c>
       <c r="H16" s="54" t="s">
         <v>107</v>
@@ -2431,10 +2855,10 @@
         <v>41</v>
       </c>
       <c r="K16" s="28">
-        <v>44659.0</v>
+        <v>44659</v>
       </c>
       <c r="L16" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
@@ -2452,12 +2876,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>108</v>
       </c>
       <c r="B17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>449</v>
       </c>
       <c r="C17" s="23" t="s">
@@ -2473,7 +2897,7 @@
         <v>109</v>
       </c>
       <c r="G17" s="26">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>110</v>
@@ -2485,10 +2909,10 @@
         <v>28</v>
       </c>
       <c r="K17" s="28">
-        <v>44660.0</v>
+        <v>44660</v>
       </c>
       <c r="L17" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
@@ -2506,12 +2930,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>112</v>
       </c>
       <c r="B18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>456</v>
       </c>
       <c r="C18" s="23" t="s">
@@ -2527,7 +2951,7 @@
         <v>114</v>
       </c>
       <c r="G18" s="26">
-        <v>1985.0</v>
+        <v>1985</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>115</v>
@@ -2539,10 +2963,10 @@
         <v>41</v>
       </c>
       <c r="K18" s="28">
-        <v>44661.0</v>
+        <v>44661</v>
       </c>
       <c r="L18" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M18" s="30"/>
       <c r="N18" s="30"/>
@@ -2560,12 +2984,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>120</v>
       </c>
       <c r="B19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>460</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -2581,7 +3005,7 @@
         <v>121</v>
       </c>
       <c r="G19" s="26">
-        <v>1992.0</v>
+        <v>1992</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>122</v>
@@ -2593,10 +3017,10 @@
         <v>28</v>
       </c>
       <c r="K19" s="28">
-        <v>44663.0</v>
+        <v>44663</v>
       </c>
       <c r="L19" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M19" s="55"/>
       <c r="N19" s="55"/>
@@ -2614,12 +3038,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" ht="18.0" customHeight="1">
+    <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>124</v>
       </c>
       <c r="B20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>455</v>
       </c>
       <c r="C20" s="21"/>
@@ -2633,7 +3057,7 @@
         <v>125</v>
       </c>
       <c r="G20" s="26">
-        <v>1978.0</v>
+        <v>1978</v>
       </c>
       <c r="H20" s="54" t="s">
         <v>126</v>
@@ -2645,10 +3069,10 @@
         <v>41</v>
       </c>
       <c r="K20" s="28">
-        <v>44664.0</v>
+        <v>44664</v>
       </c>
       <c r="L20" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
@@ -2668,12 +3092,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>132</v>
       </c>
       <c r="B21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>440</v>
       </c>
       <c r="C21" s="21"/>
@@ -2687,7 +3111,7 @@
         <v>133</v>
       </c>
       <c r="G21" s="26">
-        <v>1969.0</v>
+        <v>1969</v>
       </c>
       <c r="H21" s="54" t="s">
         <v>134</v>
@@ -2699,10 +3123,10 @@
         <v>28</v>
       </c>
       <c r="K21" s="28">
-        <v>44665.0</v>
+        <v>44665</v>
       </c>
       <c r="L21" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M21" s="56"/>
       <c r="N21" s="56"/>
@@ -2720,12 +3144,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>136</v>
       </c>
       <c r="B22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>441</v>
       </c>
       <c r="C22" s="23" t="s">
@@ -2741,7 +3165,7 @@
         <v>137</v>
       </c>
       <c r="G22" s="26">
-        <v>1994.0</v>
+        <v>1994</v>
       </c>
       <c r="H22" s="57" t="s">
         <v>138</v>
@@ -2753,10 +3177,10 @@
         <v>139</v>
       </c>
       <c r="K22" s="28">
-        <v>44665.0</v>
+        <v>44665</v>
       </c>
       <c r="L22" s="29">
-        <v>0.8958333333333334</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
@@ -2774,12 +3198,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>140</v>
       </c>
       <c r="B23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>452</v>
       </c>
       <c r="C23" s="23" t="s">
@@ -2795,7 +3219,7 @@
         <v>78</v>
       </c>
       <c r="G23" s="26">
-        <v>1997.0</v>
+        <v>1997</v>
       </c>
       <c r="H23" s="54" t="s">
         <v>141</v>
@@ -2807,10 +3231,10 @@
         <v>41</v>
       </c>
       <c r="K23" s="28">
-        <v>44666.0</v>
+        <v>44666</v>
       </c>
       <c r="L23" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M23" s="58"/>
       <c r="N23" s="58"/>
@@ -2828,12 +3252,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>143</v>
       </c>
       <c r="B24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>456</v>
       </c>
       <c r="C24" s="23" t="s">
@@ -2849,7 +3273,7 @@
         <v>144</v>
       </c>
       <c r="G24" s="26">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="H24" s="54" t="s">
         <v>145</v>
@@ -2861,10 +3285,10 @@
         <v>41</v>
       </c>
       <c r="K24" s="28">
-        <v>44667.0</v>
+        <v>44667</v>
       </c>
       <c r="L24" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M24" s="58"/>
       <c r="N24" s="58"/>
@@ -2882,12 +3306,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>147</v>
       </c>
       <c r="B25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>456</v>
       </c>
       <c r="C25" s="23"/>
@@ -2901,7 +3325,7 @@
         <v>148</v>
       </c>
       <c r="G25" s="26">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="H25" s="22" t="s">
         <v>149</v>
@@ -2913,10 +3337,10 @@
         <v>28</v>
       </c>
       <c r="K25" s="28">
-        <v>44668.0</v>
+        <v>44668</v>
       </c>
       <c r="L25" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
@@ -2934,12 +3358,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>151</v>
       </c>
       <c r="B26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C26" s="23" t="s">
@@ -2955,7 +3379,7 @@
         <v>152</v>
       </c>
       <c r="G26" s="26">
-        <v>1982.0</v>
+        <v>1982</v>
       </c>
       <c r="H26" s="22" t="s">
         <v>153</v>
@@ -2967,10 +3391,10 @@
         <v>41</v>
       </c>
       <c r="K26" s="28">
-        <v>44669.0</v>
+        <v>44669</v>
       </c>
       <c r="L26" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M26" s="35"/>
       <c r="N26" s="35"/>
@@ -2990,12 +3414,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>155</v>
       </c>
       <c r="B27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>443</v>
       </c>
       <c r="C27" s="23" t="s">
@@ -3011,7 +3435,7 @@
         <v>156</v>
       </c>
       <c r="G27" s="26">
-        <v>1992.0</v>
+        <v>1992</v>
       </c>
       <c r="H27" s="54" t="s">
         <v>157</v>
@@ -3023,10 +3447,10 @@
         <v>28</v>
       </c>
       <c r="K27" s="28">
-        <v>44670.0</v>
+        <v>44670</v>
       </c>
       <c r="L27" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
@@ -3044,12 +3468,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>159</v>
       </c>
       <c r="B28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>441</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -3065,7 +3489,7 @@
         <v>161</v>
       </c>
       <c r="G28" s="26">
-        <v>1994.0</v>
+        <v>1994</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>162</v>
@@ -3077,10 +3501,10 @@
         <v>28</v>
       </c>
       <c r="K28" s="28">
-        <v>44671.0</v>
+        <v>44671</v>
       </c>
       <c r="L28" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M28" s="29"/>
       <c r="N28" s="29"/>
@@ -3098,12 +3522,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>164</v>
       </c>
       <c r="B29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>442</v>
       </c>
       <c r="C29" s="23"/>
@@ -3117,7 +3541,7 @@
         <v>165</v>
       </c>
       <c r="G29" s="26">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="H29" s="54" t="s">
         <v>166</v>
@@ -3129,10 +3553,10 @@
         <v>28</v>
       </c>
       <c r="K29" s="28">
-        <v>44672.0</v>
+        <v>44672</v>
       </c>
       <c r="L29" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
@@ -3150,12 +3574,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>168</v>
       </c>
       <c r="B30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>443</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -3167,7 +3591,7 @@
         <v>169</v>
       </c>
       <c r="G30" s="26">
-        <v>1996.0</v>
+        <v>1996</v>
       </c>
       <c r="H30" s="54" t="s">
         <v>170</v>
@@ -3179,10 +3603,10 @@
         <v>139</v>
       </c>
       <c r="K30" s="28">
-        <v>44672.0</v>
+        <v>44672</v>
       </c>
       <c r="L30" s="29">
-        <v>0.8958333333333334</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
@@ -3200,12 +3624,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>171</v>
       </c>
       <c r="B31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>457</v>
       </c>
       <c r="C31" s="23"/>
@@ -3219,7 +3643,7 @@
         <v>78</v>
       </c>
       <c r="G31" s="26">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="H31" s="22" t="s">
         <v>172</v>
@@ -3231,10 +3655,10 @@
         <v>41</v>
       </c>
       <c r="K31" s="28">
-        <v>44673.0</v>
+        <v>44673</v>
       </c>
       <c r="L31" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M31" s="30"/>
       <c r="N31" s="30"/>
@@ -3252,12 +3676,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>174</v>
       </c>
       <c r="B32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>466</v>
       </c>
       <c r="C32" s="23"/>
@@ -3267,7 +3691,7 @@
         <v>175</v>
       </c>
       <c r="G32" s="26">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="H32" s="54" t="s">
         <v>176</v>
@@ -3279,10 +3703,10 @@
         <v>41</v>
       </c>
       <c r="K32" s="28">
-        <v>44674.0</v>
+        <v>44674</v>
       </c>
       <c r="L32" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
@@ -3302,12 +3726,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>179</v>
       </c>
       <c r="B33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>460</v>
       </c>
       <c r="C33" s="23" t="s">
@@ -3323,7 +3747,7 @@
         <v>180</v>
       </c>
       <c r="G33" s="26">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="H33" s="54" t="s">
         <v>181</v>
@@ -3335,10 +3759,10 @@
         <v>28</v>
       </c>
       <c r="K33" s="28">
-        <v>44675.0</v>
+        <v>44675</v>
       </c>
       <c r="L33" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M33" s="35"/>
       <c r="N33" s="35"/>
@@ -3356,12 +3780,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="62" t="s">
         <v>183</v>
       </c>
       <c r="B34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>516</v>
       </c>
       <c r="C34" s="23" t="s">
@@ -3377,7 +3801,7 @@
         <v>184</v>
       </c>
       <c r="G34" s="26">
-        <v>1995.0</v>
+        <v>1995</v>
       </c>
       <c r="H34" s="22" t="s">
         <v>185</v>
@@ -3389,10 +3813,10 @@
         <v>139</v>
       </c>
       <c r="K34" s="28">
-        <v>44676.0</v>
+        <v>44676</v>
       </c>
       <c r="L34" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M34" s="29"/>
       <c r="N34" s="29"/>
@@ -3412,7 +3836,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A35" s="62" t="s">
         <v>188</v>
       </c>
@@ -3424,7 +3848,7 @@
         <v>189</v>
       </c>
       <c r="G35" s="26">
-        <v>1991.0</v>
+        <v>1991</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>190</v>
@@ -3436,10 +3860,10 @@
         <v>49</v>
       </c>
       <c r="K35" s="28">
-        <v>44676.0</v>
+        <v>44676</v>
       </c>
       <c r="L35" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M35" s="29"/>
       <c r="N35" s="29"/>
@@ -3459,12 +3883,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A36" s="63" t="s">
         <v>192</v>
       </c>
       <c r="B36" s="5">
-        <f t="shared" ref="B36:B43" si="3">len(H36)</f>
+        <f t="shared" ref="B36:B43" si="2">LEN(H36)</f>
         <v>458</v>
       </c>
       <c r="C36" s="23" t="s">
@@ -3480,7 +3904,7 @@
         <v>193</v>
       </c>
       <c r="G36" s="26">
-        <v>1992.0</v>
+        <v>1992</v>
       </c>
       <c r="H36" s="22" t="s">
         <v>194</v>
@@ -3492,10 +3916,10 @@
         <v>41</v>
       </c>
       <c r="K36" s="28">
-        <v>44677.0</v>
+        <v>44677</v>
       </c>
       <c r="L36" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M36" s="64"/>
       <c r="N36" s="64"/>
@@ -3513,12 +3937,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>196</v>
       </c>
       <c r="B37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>455</v>
       </c>
       <c r="C37" s="25" t="s">
@@ -3534,7 +3958,7 @@
         <v>161</v>
       </c>
       <c r="G37" s="26">
-        <v>1998.0</v>
+        <v>1998</v>
       </c>
       <c r="H37" s="22" t="s">
         <v>197</v>
@@ -3546,10 +3970,10 @@
         <v>28</v>
       </c>
       <c r="K37" s="28">
-        <v>44678.0</v>
+        <v>44678</v>
       </c>
       <c r="L37" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M37" s="56"/>
       <c r="N37" s="56"/>
@@ -3567,12 +3991,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>199</v>
       </c>
       <c r="B38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>448</v>
       </c>
       <c r="C38" s="67" t="s">
@@ -3584,7 +4008,7 @@
         <v>201</v>
       </c>
       <c r="G38" s="68">
-        <v>1974.0</v>
+        <v>1974</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>202</v>
@@ -3596,10 +4020,10 @@
         <v>28</v>
       </c>
       <c r="K38" s="69">
-        <v>44679.0</v>
+        <v>44679</v>
       </c>
       <c r="L38" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M38" s="29"/>
       <c r="N38" s="29"/>
@@ -3617,12 +4041,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A39" s="70" t="s">
         <v>204</v>
       </c>
       <c r="B39" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>456</v>
       </c>
       <c r="C39" s="67"/>
@@ -3632,7 +4056,7 @@
         <v>205</v>
       </c>
       <c r="G39" s="68">
-        <v>1991.0</v>
+        <v>1991</v>
       </c>
       <c r="H39" s="54" t="s">
         <v>206</v>
@@ -3644,10 +4068,10 @@
         <v>41</v>
       </c>
       <c r="K39" s="28">
-        <v>44679.0</v>
+        <v>44679</v>
       </c>
       <c r="L39" s="29">
-        <v>0.8958333333333334</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="M39" s="30"/>
       <c r="N39" s="30"/>
@@ -3665,12 +4089,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A40" s="61" t="s">
         <v>208</v>
       </c>
       <c r="B40" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C40" s="67" t="s">
@@ -3686,7 +4110,7 @@
         <v>209</v>
       </c>
       <c r="G40" s="68">
-        <v>1993.0</v>
+        <v>1993</v>
       </c>
       <c r="H40" s="54" t="s">
         <v>210</v>
@@ -3698,10 +4122,10 @@
         <v>49</v>
       </c>
       <c r="K40" s="28">
-        <v>44680.0</v>
+        <v>44680</v>
       </c>
       <c r="L40" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M40" s="56"/>
       <c r="N40" s="56"/>
@@ -3721,12 +4145,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A41" s="61" t="s">
         <v>213</v>
       </c>
       <c r="B41" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>454</v>
       </c>
       <c r="C41" s="67" t="s">
@@ -3738,7 +4162,7 @@
         <v>214</v>
       </c>
       <c r="G41" s="68">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="H41" s="54" t="s">
         <v>215</v>
@@ -3750,10 +4174,10 @@
         <v>41</v>
       </c>
       <c r="K41" s="28">
-        <v>44681.0</v>
+        <v>44681</v>
       </c>
       <c r="L41" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M41" s="30"/>
       <c r="N41" s="30"/>
@@ -3771,12 +4195,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A42" s="61" t="s">
         <v>217</v>
       </c>
       <c r="B42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>445</v>
       </c>
       <c r="C42" s="67" t="s">
@@ -3792,7 +4216,7 @@
         <v>218</v>
       </c>
       <c r="G42" s="68">
-        <v>1987.0</v>
+        <v>1987</v>
       </c>
       <c r="H42" s="54" t="s">
         <v>219</v>
@@ -3804,10 +4228,10 @@
         <v>49</v>
       </c>
       <c r="K42" s="28">
-        <v>44682.0</v>
+        <v>44682</v>
       </c>
       <c r="L42" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M42" s="29"/>
       <c r="N42" s="29"/>
@@ -3825,12 +4249,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:21" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A43" s="61" t="s">
         <v>220</v>
       </c>
       <c r="B43" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>518</v>
       </c>
       <c r="C43" s="67"/>
@@ -3844,7 +4268,7 @@
         <v>221</v>
       </c>
       <c r="G43" s="68">
-        <v>1995.0</v>
+        <v>1995</v>
       </c>
       <c r="H43" s="22" t="s">
         <v>222</v>
@@ -3856,10 +4280,10 @@
         <v>49</v>
       </c>
       <c r="K43" s="28">
-        <v>44683.0</v>
+        <v>44683</v>
       </c>
       <c r="L43" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M43" s="56"/>
       <c r="N43" s="56"/>
@@ -3879,7 +4303,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
         <v>223</v>
       </c>
@@ -3891,7 +4315,7 @@
         <v>224</v>
       </c>
       <c r="G44" s="68">
-        <v>1993.0</v>
+        <v>1993</v>
       </c>
       <c r="H44" s="22"/>
       <c r="I44" s="68" t="s">
@@ -3901,10 +4325,10 @@
         <v>49</v>
       </c>
       <c r="K44" s="28">
-        <v>44683.0</v>
+        <v>44683</v>
       </c>
       <c r="L44" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M44" s="56"/>
       <c r="N44" s="56"/>
@@ -3924,7 +4348,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A45" s="61" t="s">
         <v>226</v>
       </c>
@@ -3936,7 +4360,7 @@
         <v>224</v>
       </c>
       <c r="G45" s="68">
-        <v>1991.0</v>
+        <v>1991</v>
       </c>
       <c r="H45" s="22"/>
       <c r="I45" s="68" t="s">
@@ -3946,10 +4370,10 @@
         <v>49</v>
       </c>
       <c r="K45" s="28">
-        <v>44683.0</v>
+        <v>44683</v>
       </c>
       <c r="L45" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M45" s="56"/>
       <c r="N45" s="56"/>
@@ -3969,7 +4393,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
         <v>228</v>
       </c>
@@ -3981,7 +4405,7 @@
         <v>224</v>
       </c>
       <c r="G46" s="68">
-        <v>1993.0</v>
+        <v>1993</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="68" t="s">
@@ -3991,10 +4415,10 @@
         <v>49</v>
       </c>
       <c r="K46" s="28">
-        <v>44683.0</v>
+        <v>44683</v>
       </c>
       <c r="L46" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M46" s="56"/>
       <c r="N46" s="56"/>
@@ -4014,12 +4438,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A47" s="61" t="s">
         <v>230</v>
       </c>
       <c r="B47" s="5">
-        <f t="shared" ref="B47:B55" si="4">len(H47)</f>
+        <f t="shared" ref="B47:B55" si="3">LEN(H47)</f>
         <v>457</v>
       </c>
       <c r="C47" s="67"/>
@@ -4033,7 +4457,7 @@
         <v>231</v>
       </c>
       <c r="G47" s="68">
-        <v>1992.0</v>
+        <v>1992</v>
       </c>
       <c r="H47" s="54" t="s">
         <v>232</v>
@@ -4045,10 +4469,10 @@
         <v>28</v>
       </c>
       <c r="K47" s="69">
-        <v>44684.0</v>
+        <v>44684</v>
       </c>
       <c r="L47" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M47" s="29"/>
       <c r="N47" s="29"/>
@@ -4066,12 +4490,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
         <v>234</v>
       </c>
       <c r="B48" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>455</v>
       </c>
       <c r="C48" s="67"/>
@@ -4085,7 +4509,7 @@
         <v>235</v>
       </c>
       <c r="G48" s="68">
-        <v>1971.0</v>
+        <v>1971</v>
       </c>
       <c r="H48" s="54" t="s">
         <v>236</v>
@@ -4097,10 +4521,10 @@
         <v>28</v>
       </c>
       <c r="K48" s="28">
-        <v>44685.0</v>
+        <v>44685</v>
       </c>
       <c r="L48" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M48" s="29"/>
       <c r="N48" s="29"/>
@@ -4118,12 +4542,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
         <v>237</v>
       </c>
       <c r="B49" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>451</v>
       </c>
       <c r="C49" s="67"/>
@@ -4137,7 +4561,7 @@
         <v>238</v>
       </c>
       <c r="G49" s="68">
-        <v>1982.0</v>
+        <v>1982</v>
       </c>
       <c r="H49" s="54" t="s">
         <v>239</v>
@@ -4149,10 +4573,10 @@
         <v>28</v>
       </c>
       <c r="K49" s="28">
-        <v>44686.0</v>
+        <v>44686</v>
       </c>
       <c r="L49" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M49" s="56"/>
       <c r="N49" s="56"/>
@@ -4170,12 +4594,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
         <v>241</v>
       </c>
       <c r="B50" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>466</v>
       </c>
       <c r="C50" s="63" t="s">
@@ -4187,7 +4611,7 @@
         <v>242</v>
       </c>
       <c r="G50" s="68">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="H50" s="72" t="s">
         <v>243</v>
@@ -4199,10 +4623,10 @@
         <v>41</v>
       </c>
       <c r="K50" s="28">
-        <v>44686.0</v>
+        <v>44686</v>
       </c>
       <c r="L50" s="29">
-        <v>0.8958333333333334</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="M50" s="56"/>
       <c r="N50" s="56"/>
@@ -4220,12 +4644,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A51" s="61" t="s">
         <v>244</v>
       </c>
       <c r="B51" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>443</v>
       </c>
       <c r="C51" s="63"/>
@@ -4239,7 +4663,7 @@
         <v>78</v>
       </c>
       <c r="G51" s="68">
-        <v>1988.0</v>
+        <v>1988</v>
       </c>
       <c r="H51" s="54" t="s">
         <v>245</v>
@@ -4251,10 +4675,10 @@
         <v>41</v>
       </c>
       <c r="K51" s="28">
-        <v>44687.0</v>
+        <v>44687</v>
       </c>
       <c r="L51" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M51" s="30"/>
       <c r="N51" s="30"/>
@@ -4272,12 +4696,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A52" s="73" t="s">
         <v>246</v>
       </c>
       <c r="B52" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>454</v>
       </c>
       <c r="C52" s="23" t="s">
@@ -4293,7 +4717,7 @@
         <v>247</v>
       </c>
       <c r="G52" s="26">
-        <v>1989.0</v>
+        <v>1989</v>
       </c>
       <c r="H52" s="22" t="s">
         <v>248</v>
@@ -4305,7 +4729,7 @@
         <v>28</v>
       </c>
       <c r="K52" s="69">
-        <v>44688.0</v>
+        <v>44688</v>
       </c>
       <c r="L52" s="29">
         <v>0.6875</v>
@@ -4328,12 +4752,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A53" s="61" t="s">
         <v>251</v>
       </c>
       <c r="B53" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>444</v>
       </c>
       <c r="C53" s="67" t="s">
@@ -4349,7 +4773,7 @@
         <v>252</v>
       </c>
       <c r="G53" s="68">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="H53" s="54" t="s">
         <v>253</v>
@@ -4361,10 +4785,10 @@
         <v>41</v>
       </c>
       <c r="K53" s="28">
-        <v>44688.0</v>
+        <v>44688</v>
       </c>
       <c r="L53" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M53" s="29"/>
       <c r="N53" s="29"/>
@@ -4382,12 +4806,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A54" s="61" t="s">
         <v>254</v>
       </c>
       <c r="B54" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>452</v>
       </c>
       <c r="C54" s="67" t="s">
@@ -4403,7 +4827,7 @@
         <v>255</v>
       </c>
       <c r="G54" s="68">
-        <v>2001.0</v>
+        <v>2001</v>
       </c>
       <c r="H54" s="22" t="s">
         <v>256</v>
@@ -4415,10 +4839,10 @@
         <v>28</v>
       </c>
       <c r="K54" s="28">
-        <v>44689.0</v>
+        <v>44689</v>
       </c>
       <c r="L54" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M54" s="29"/>
       <c r="N54" s="29"/>
@@ -4436,12 +4860,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:21" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A55" s="61" t="s">
         <v>257</v>
       </c>
       <c r="B55" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>516</v>
       </c>
       <c r="C55" s="67"/>
@@ -4455,7 +4879,7 @@
         <v>258</v>
       </c>
       <c r="G55" s="68">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="H55" s="54" t="s">
         <v>259</v>
@@ -4467,10 +4891,10 @@
         <v>41</v>
       </c>
       <c r="K55" s="28">
-        <v>44690.0</v>
+        <v>44690</v>
       </c>
       <c r="L55" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M55" s="30"/>
       <c r="N55" s="30"/>
@@ -4490,7 +4914,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A56" s="61" t="s">
         <v>261</v>
       </c>
@@ -4502,7 +4926,7 @@
         <v>262</v>
       </c>
       <c r="G56" s="68">
-        <v>1995.0</v>
+        <v>1995</v>
       </c>
       <c r="H56" s="54" t="s">
         <v>190</v>
@@ -4514,10 +4938,10 @@
         <v>49</v>
       </c>
       <c r="K56" s="69">
-        <v>44690.0</v>
+        <v>44690</v>
       </c>
       <c r="L56" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M56" s="30"/>
       <c r="N56" s="30"/>
@@ -4537,12 +4961,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A57" s="61" t="s">
         <v>264</v>
       </c>
       <c r="B57" s="5">
-        <f t="shared" ref="B57:B65" si="5">len(H57)</f>
+        <f t="shared" ref="B57:B65" si="4">LEN(H57)</f>
         <v>453</v>
       </c>
       <c r="C57" s="67" t="s">
@@ -4558,7 +4982,7 @@
         <v>265</v>
       </c>
       <c r="G57" s="68">
-        <v>1992.0</v>
+        <v>1992</v>
       </c>
       <c r="H57" s="74" t="s">
         <v>266</v>
@@ -4570,10 +4994,10 @@
         <v>41</v>
       </c>
       <c r="K57" s="28">
-        <v>44691.0</v>
+        <v>44691</v>
       </c>
       <c r="L57" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M57" s="64"/>
       <c r="N57" s="64"/>
@@ -4591,12 +5015,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>268</v>
       </c>
       <c r="B58" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>455</v>
       </c>
       <c r="C58" s="63"/>
@@ -4610,7 +5034,7 @@
         <v>235</v>
       </c>
       <c r="G58" s="68">
-        <v>1972.0</v>
+        <v>1972</v>
       </c>
       <c r="H58" s="54" t="s">
         <v>269</v>
@@ -4622,10 +5046,10 @@
         <v>28</v>
       </c>
       <c r="K58" s="28">
-        <v>44692.0</v>
+        <v>44692</v>
       </c>
       <c r="L58" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M58" s="56"/>
       <c r="N58" s="56"/>
@@ -4643,12 +5067,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A59" s="75" t="s">
         <v>271</v>
       </c>
       <c r="B59" s="76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>446</v>
       </c>
       <c r="C59" s="77" t="s">
@@ -4662,7 +5086,7 @@
         <v>273</v>
       </c>
       <c r="G59" s="80">
-        <v>1982.0</v>
+        <v>1982</v>
       </c>
       <c r="H59" s="37" t="s">
         <v>274</v>
@@ -4674,10 +5098,10 @@
         <v>41</v>
       </c>
       <c r="K59" s="81">
-        <v>44693.0</v>
+        <v>44693</v>
       </c>
       <c r="L59" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M59" s="30"/>
       <c r="N59" s="30"/>
@@ -4697,12 +5121,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A60" s="61" t="s">
         <v>277</v>
       </c>
       <c r="B60" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>487</v>
       </c>
       <c r="C60" s="63" t="s">
@@ -4714,7 +5138,7 @@
         <v>278</v>
       </c>
       <c r="G60" s="83">
-        <v>1980.0</v>
+        <v>1980</v>
       </c>
       <c r="H60" s="54" t="s">
         <v>279</v>
@@ -4726,10 +5150,10 @@
         <v>41</v>
       </c>
       <c r="K60" s="28">
-        <v>44693.0</v>
+        <v>44693</v>
       </c>
       <c r="L60" s="29">
-        <v>0.8958333333333334</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="M60" s="30"/>
       <c r="N60" s="30"/>
@@ -4747,12 +5171,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A61" s="61" t="s">
         <v>280</v>
       </c>
       <c r="B61" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>459</v>
       </c>
       <c r="C61" s="67" t="s">
@@ -4768,7 +5192,7 @@
         <v>78</v>
       </c>
       <c r="G61" s="61">
-        <v>1990.0</v>
+        <v>1990</v>
       </c>
       <c r="H61" s="22" t="s">
         <v>281</v>
@@ -4780,10 +5204,10 @@
         <v>41</v>
       </c>
       <c r="K61" s="28">
-        <v>44694.0</v>
+        <v>44694</v>
       </c>
       <c r="L61" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M61" s="29"/>
       <c r="N61" s="29"/>
@@ -4801,12 +5225,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A62" s="61" t="s">
         <v>282</v>
       </c>
       <c r="B62" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>446</v>
       </c>
       <c r="C62" s="67" t="s">
@@ -4822,7 +5246,7 @@
         <v>283</v>
       </c>
       <c r="G62" s="61">
-        <v>1943.0</v>
+        <v>1943</v>
       </c>
       <c r="H62" s="74" t="s">
         <v>284</v>
@@ -4834,10 +5258,10 @@
         <v>41</v>
       </c>
       <c r="K62" s="69">
-        <v>44695.0</v>
+        <v>44695</v>
       </c>
       <c r="L62" s="29">
-        <v>0.6041666666666666</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="M62" s="29"/>
       <c r="N62" s="29"/>
@@ -4857,12 +5281,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A63" s="61" t="s">
         <v>290</v>
       </c>
       <c r="B63" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>457</v>
       </c>
       <c r="C63" s="67" t="s">
@@ -4878,7 +5302,7 @@
         <v>165</v>
       </c>
       <c r="G63" s="61">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="H63" s="74" t="s">
         <v>291</v>
@@ -4890,10 +5314,10 @@
         <v>41</v>
       </c>
       <c r="K63" s="28">
-        <v>44695.0</v>
+        <v>44695</v>
       </c>
       <c r="L63" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M63" s="29"/>
       <c r="N63" s="29"/>
@@ -4911,12 +5335,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A64" s="61" t="s">
         <v>293</v>
       </c>
       <c r="B64" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>454</v>
       </c>
       <c r="C64" s="67" t="s">
@@ -4932,7 +5356,7 @@
         <v>294</v>
       </c>
       <c r="G64" s="61">
-        <v>1996.0</v>
+        <v>1996</v>
       </c>
       <c r="H64" s="54" t="s">
         <v>295</v>
@@ -4944,10 +5368,10 @@
         <v>28</v>
       </c>
       <c r="K64" s="28">
-        <v>44696.0</v>
+        <v>44696</v>
       </c>
       <c r="L64" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M64" s="30"/>
       <c r="N64" s="30"/>
@@ -4965,12 +5389,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A65" s="61" t="s">
         <v>297</v>
       </c>
       <c r="B65" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="C65" s="67" t="s">
@@ -4986,7 +5410,7 @@
         <v>298</v>
       </c>
       <c r="G65" s="22">
-        <v>2005.0</v>
+        <v>2005</v>
       </c>
       <c r="H65" s="54" t="s">
         <v>299</v>
@@ -4998,10 +5422,10 @@
         <v>49</v>
       </c>
       <c r="K65" s="28">
-        <v>44697.0</v>
+        <v>44697</v>
       </c>
       <c r="L65" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M65" s="30"/>
       <c r="N65" s="30"/>
@@ -5021,7 +5445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A66" s="61" t="s">
         <v>301</v>
       </c>
@@ -5033,7 +5457,7 @@
         <v>302</v>
       </c>
       <c r="G66" s="22">
-        <v>1979.0</v>
+        <v>1979</v>
       </c>
       <c r="H66" s="54" t="s">
         <v>190</v>
@@ -5045,10 +5469,10 @@
         <v>139</v>
       </c>
       <c r="K66" s="69">
-        <v>44697.0</v>
+        <v>44697</v>
       </c>
       <c r="L66" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M66" s="30"/>
       <c r="N66" s="30"/>
@@ -5068,12 +5492,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:21" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A67" s="73" t="s">
         <v>304</v>
       </c>
       <c r="B67" s="5">
-        <f t="shared" ref="B67:B75" si="6">len(H67)</f>
+        <f t="shared" ref="B67:B75" si="5">LEN(H67)</f>
         <v>507</v>
       </c>
       <c r="C67" s="23"/>
@@ -5087,7 +5511,7 @@
         <v>305</v>
       </c>
       <c r="G67" s="26">
-        <v>1989.0</v>
+        <v>1989</v>
       </c>
       <c r="H67" s="22" t="s">
         <v>306</v>
@@ -5099,10 +5523,10 @@
         <v>41</v>
       </c>
       <c r="K67" s="69">
-        <v>44697.0</v>
+        <v>44697</v>
       </c>
       <c r="L67" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M67" s="56"/>
       <c r="N67" s="56"/>
@@ -5122,12 +5546,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A68" s="61" t="s">
         <v>309</v>
       </c>
       <c r="B68" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>455</v>
       </c>
       <c r="C68" s="67" t="s">
@@ -5143,7 +5567,7 @@
         <v>310</v>
       </c>
       <c r="G68" s="68">
-        <v>1992.0</v>
+        <v>1992</v>
       </c>
       <c r="H68" s="54" t="s">
         <v>311</v>
@@ -5155,10 +5579,10 @@
         <v>41</v>
       </c>
       <c r="K68" s="28">
-        <v>44698.0</v>
+        <v>44698</v>
       </c>
       <c r="L68" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M68" s="30"/>
       <c r="N68" s="30"/>
@@ -5176,12 +5600,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A69" s="61" t="s">
         <v>312</v>
       </c>
       <c r="B69" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>455</v>
       </c>
       <c r="C69" s="67" t="s">
@@ -5197,7 +5621,7 @@
         <v>235</v>
       </c>
       <c r="G69" s="68">
-        <v>1976.0</v>
+        <v>1976</v>
       </c>
       <c r="H69" s="54" t="s">
         <v>313</v>
@@ -5209,10 +5633,10 @@
         <v>41</v>
       </c>
       <c r="K69" s="28">
-        <v>44699.0</v>
+        <v>44699</v>
       </c>
       <c r="L69" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M69" s="29"/>
       <c r="N69" s="29"/>
@@ -5230,12 +5654,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A70" s="61" t="s">
         <v>314</v>
       </c>
       <c r="B70" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>445</v>
       </c>
       <c r="C70" s="85"/>
@@ -5249,7 +5673,7 @@
         <v>315</v>
       </c>
       <c r="G70" s="68">
-        <v>1991.0</v>
+        <v>1991</v>
       </c>
       <c r="H70" s="54" t="s">
         <v>316</v>
@@ -5261,10 +5685,10 @@
         <v>41</v>
       </c>
       <c r="K70" s="28">
-        <v>44700.0</v>
+        <v>44700</v>
       </c>
       <c r="L70" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M70" s="30"/>
       <c r="N70" s="30"/>
@@ -5282,12 +5706,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A71" s="61" t="s">
         <v>318</v>
       </c>
       <c r="B71" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>484</v>
       </c>
       <c r="C71" s="63" t="s">
@@ -5299,7 +5723,7 @@
         <v>319</v>
       </c>
       <c r="G71" s="68">
-        <v>1980.0</v>
+        <v>1980</v>
       </c>
       <c r="H71" s="54" t="s">
         <v>320</v>
@@ -5311,10 +5735,10 @@
         <v>41</v>
       </c>
       <c r="K71" s="69">
-        <v>44700.0</v>
+        <v>44700</v>
       </c>
       <c r="L71" s="29">
-        <v>0.8958333333333334</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="M71" s="30"/>
       <c r="N71" s="30"/>
@@ -5332,12 +5756,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A72" s="61" t="s">
         <v>322</v>
       </c>
       <c r="B72" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>452</v>
       </c>
       <c r="C72" s="63" t="s">
@@ -5353,7 +5777,7 @@
         <v>78</v>
       </c>
       <c r="G72" s="68">
-        <v>1994.0</v>
+        <v>1994</v>
       </c>
       <c r="H72" s="54" t="s">
         <v>323</v>
@@ -5365,10 +5789,10 @@
         <v>28</v>
       </c>
       <c r="K72" s="69">
-        <v>44701.0</v>
+        <v>44701</v>
       </c>
       <c r="L72" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M72" s="30"/>
       <c r="N72" s="30"/>
@@ -5386,12 +5810,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A73" s="61" t="s">
         <v>324</v>
       </c>
       <c r="B73" s="86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>456</v>
       </c>
       <c r="C73" s="63" t="s">
@@ -5403,7 +5827,7 @@
         <v>325</v>
       </c>
       <c r="G73" s="68">
-        <v>1977.0</v>
+        <v>1977</v>
       </c>
       <c r="H73" s="54" t="s">
         <v>326</v>
@@ -5415,10 +5839,10 @@
         <v>49</v>
       </c>
       <c r="K73" s="69">
-        <v>44701.0</v>
+        <v>44701</v>
       </c>
       <c r="L73" s="29">
-        <v>0.9993055555555556</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="M73" s="30"/>
       <c r="N73" s="30"/>
@@ -5438,12 +5862,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A74" s="61" t="s">
         <v>329</v>
       </c>
       <c r="B74" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>467</v>
       </c>
       <c r="C74" s="63" t="s">
@@ -5455,7 +5879,7 @@
         <v>330</v>
       </c>
       <c r="G74" s="68">
-        <v>1997.0</v>
+        <v>1997</v>
       </c>
       <c r="H74" s="54" t="s">
         <v>331</v>
@@ -5467,10 +5891,10 @@
         <v>28</v>
       </c>
       <c r="K74" s="87">
-        <v>44703.0</v>
+        <v>44703</v>
       </c>
       <c r="L74" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M74" s="30"/>
       <c r="N74" s="30"/>
@@ -5488,12 +5912,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:21" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A75" s="61" t="s">
         <v>333</v>
       </c>
       <c r="B75" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>520</v>
       </c>
       <c r="C75" s="63" t="s">
@@ -5509,7 +5933,7 @@
         <v>334</v>
       </c>
       <c r="G75" s="68">
-        <v>1970.0</v>
+        <v>1970</v>
       </c>
       <c r="H75" s="54" t="s">
         <v>335</v>
@@ -5521,10 +5945,10 @@
         <v>41</v>
       </c>
       <c r="K75" s="28">
-        <v>44704.0</v>
+        <v>44704</v>
       </c>
       <c r="L75" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M75" s="30"/>
       <c r="N75" s="30"/>
@@ -5544,7 +5968,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A76" s="61" t="s">
         <v>337</v>
       </c>
@@ -5556,7 +5980,7 @@
         <v>338</v>
       </c>
       <c r="G76" s="68">
-        <v>1985.0</v>
+        <v>1985</v>
       </c>
       <c r="H76" s="54" t="s">
         <v>190</v>
@@ -5568,10 +5992,10 @@
         <v>49</v>
       </c>
       <c r="K76" s="69">
-        <v>44704.0</v>
+        <v>44704</v>
       </c>
       <c r="L76" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M76" s="30"/>
       <c r="N76" s="30"/>
@@ -5591,12 +6015,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A77" s="61" t="s">
         <v>339</v>
       </c>
       <c r="B77" s="5">
-        <f t="shared" ref="B77:B84" si="7">len(H77)</f>
+        <f t="shared" ref="B77:B84" si="6">LEN(H77)</f>
         <v>449</v>
       </c>
       <c r="C77" s="63" t="s">
@@ -5612,7 +6036,7 @@
         <v>340</v>
       </c>
       <c r="G77" s="68">
-        <v>1992.0</v>
+        <v>1992</v>
       </c>
       <c r="H77" s="54" t="s">
         <v>341</v>
@@ -5624,10 +6048,10 @@
         <v>28</v>
       </c>
       <c r="K77" s="28">
-        <v>44705.0</v>
+        <v>44705</v>
       </c>
       <c r="L77" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M77" s="30"/>
       <c r="N77" s="30"/>
@@ -5645,12 +6069,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:21" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A78" s="61" t="s">
         <v>342</v>
       </c>
       <c r="B78" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>443</v>
       </c>
       <c r="C78" s="63" t="s">
@@ -5666,7 +6090,7 @@
         <v>235</v>
       </c>
       <c r="G78" s="68">
-        <v>1987.0</v>
+        <v>1987</v>
       </c>
       <c r="H78" s="54" t="s">
         <v>343</v>
@@ -5678,10 +6102,10 @@
         <v>28</v>
       </c>
       <c r="K78" s="28">
-        <v>44706.0</v>
+        <v>44706</v>
       </c>
       <c r="L78" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M78" s="30"/>
       <c r="N78" s="30"/>
@@ -5699,12 +6123,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A79" s="61" t="s">
         <v>344</v>
       </c>
       <c r="B79" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>440</v>
       </c>
       <c r="C79" s="85"/>
@@ -5718,7 +6142,7 @@
         <v>345</v>
       </c>
       <c r="G79" s="68">
-        <v>2008.0</v>
+        <v>2008</v>
       </c>
       <c r="H79" s="54" t="s">
         <v>346</v>
@@ -5730,10 +6154,10 @@
         <v>28</v>
       </c>
       <c r="K79" s="28">
-        <v>44707.0</v>
+        <v>44707</v>
       </c>
       <c r="L79" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M79" s="30"/>
       <c r="N79" s="30"/>
@@ -5751,12 +6175,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:21" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A80" s="61" t="s">
         <v>347</v>
       </c>
       <c r="B80" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>560</v>
       </c>
       <c r="C80" s="63" t="s">
@@ -5772,7 +6196,7 @@
         <v>349</v>
       </c>
       <c r="G80" s="68">
-        <v>1970.0</v>
+        <v>1970</v>
       </c>
       <c r="H80" s="22" t="s">
         <v>350</v>
@@ -5784,10 +6208,10 @@
         <v>41</v>
       </c>
       <c r="K80" s="28">
-        <v>44707.0</v>
+        <v>44707</v>
       </c>
       <c r="L80" s="29">
-        <v>0.8958333333333334</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="M80" s="30"/>
       <c r="N80" s="30"/>
@@ -5805,12 +6229,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A81" s="61" t="s">
         <v>352</v>
       </c>
       <c r="B81" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>459</v>
       </c>
       <c r="C81" s="63" t="s">
@@ -5826,7 +6250,7 @@
         <v>78</v>
       </c>
       <c r="G81" s="68">
-        <v>1995.0</v>
+        <v>1995</v>
       </c>
       <c r="H81" s="54" t="s">
         <v>353</v>
@@ -5838,10 +6262,10 @@
         <v>41</v>
       </c>
       <c r="K81" s="28">
-        <v>44708.0</v>
+        <v>44708</v>
       </c>
       <c r="L81" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M81" s="30"/>
       <c r="N81" s="30"/>
@@ -5859,12 +6283,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A82" s="61" t="s">
         <v>355</v>
       </c>
       <c r="B82" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>495</v>
       </c>
       <c r="C82" s="63" t="s">
@@ -5880,7 +6304,7 @@
         <v>357</v>
       </c>
       <c r="G82" s="68">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="H82" s="54" t="s">
         <v>358</v>
@@ -5892,10 +6316,10 @@
         <v>41</v>
       </c>
       <c r="K82" s="69">
-        <v>44709.0</v>
+        <v>44709</v>
       </c>
       <c r="L82" s="29">
-        <v>0.6041666666666666</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="M82" s="30"/>
       <c r="N82" s="30"/>
@@ -5913,12 +6337,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A83" s="61" t="s">
         <v>359</v>
       </c>
       <c r="B83" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>437</v>
       </c>
       <c r="C83" s="63" t="s">
@@ -5930,7 +6354,7 @@
         <v>360</v>
       </c>
       <c r="G83" s="68">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="H83" s="54" t="s">
         <v>361</v>
@@ -5942,10 +6366,10 @@
         <v>41</v>
       </c>
       <c r="K83" s="28">
-        <v>44709.0</v>
+        <v>44709</v>
       </c>
       <c r="L83" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M83" s="30"/>
       <c r="N83" s="30"/>
@@ -5965,12 +6389,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A84" s="61" t="s">
         <v>364</v>
       </c>
       <c r="B84" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>460</v>
       </c>
       <c r="C84" s="63" t="s">
@@ -5986,7 +6410,7 @@
         <v>365</v>
       </c>
       <c r="G84" s="68">
-        <v>2007.0</v>
+        <v>2007</v>
       </c>
       <c r="H84" s="54" t="s">
         <v>366</v>
@@ -5998,10 +6422,10 @@
         <v>49</v>
       </c>
       <c r="K84" s="28">
-        <v>44710.0</v>
+        <v>44710</v>
       </c>
       <c r="L84" s="29">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M84" s="30"/>
       <c r="N84" s="30"/>
@@ -6021,37 +6445,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E39 E52 E67">
-    <cfRule type="notContainsText" dxfId="0" priority="1" operator="notContains" text="y">
+    <cfRule type="notContainsText" dxfId="10" priority="1" operator="notContains" text="y">
       <formula>ISERROR(SEARCH(("y"),(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E49 E51 E53:E56 E58:E66 E68:E84">
-    <cfRule type="notContainsText" dxfId="0" priority="2" operator="notContains" text="y">
+    <cfRule type="notContainsText" dxfId="9" priority="2" operator="notContains" text="y">
       <formula>ISERROR(SEARCH(("y"),(E40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E25">
-    <cfRule type="notContainsText" dxfId="0" priority="3" operator="notContains" text="y">
+    <cfRule type="notContainsText" dxfId="8" priority="3" operator="notContains" text="y">
       <formula>ISERROR(SEARCH(("y"),(E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50 E57">
-    <cfRule type="notContainsText" dxfId="0" priority="4" operator="notContains" text="y">
+    <cfRule type="notContainsText" dxfId="7" priority="4" operator="notContains" text="y">
       <formula>ISERROR(SEARCH(("y"),(E50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B84">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
       <formula>440</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B84">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>460</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E39 E52 E67">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH(("y"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6061,22 +6485,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E25">
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH(("y"),(E23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50 E57">
-    <cfRule type="containsText" dxfId="3" priority="10" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH(("y"),(E50))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B84">
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="between">
       <formula>440</formula>
       <formula>460</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/capsules_spreadsheets/Spring-2022-Capsules.xlsx
+++ b/database/capsules_spreadsheets/Spring-2022-Capsules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\docfilms-github\site\database\capsules_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74F60A9-EDA8-4618-B367-4AE38584F545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE545302-7804-4614-A608-C53A8BEFCA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2014,10 +2014,10 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q73" sqref="Q73"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/database/capsules_spreadsheets/Spring-2022-Capsules.xlsx
+++ b/database/capsules_spreadsheets/Spring-2022-Capsules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\docfilms-github\site\database\capsules_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE545302-7804-4614-A608-C53A8BEFCA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64572535-D526-406B-975D-88ED47FEF6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="368">
   <si>
     <t>title</t>
   </si>
@@ -1223,6 +1223,9 @@
   </si>
   <si>
     <t>This dark comedy stars Keri Russell as a small-town waitress, unhappily pregnant by her abusive husband (Jeremy Sisto) but in love with her obstetrician (Nathan Fillion). An ingenious baker, she channels her emotions into pies, like the I Hate My Husband Pie, Pregnant Miserable Self-Pitying Loser Pie, and Lonely Chicago Pie. _Waitress_ was the only feature film by the late Adrienne Shelly, who also wrote, acted in, and co-designed sets and costumes for it.</t>
+  </si>
+  <si>
+    <t>Thursday 2</t>
   </si>
 </sst>
 </file>
@@ -2014,10 +2017,10 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2507,7 +2510,7 @@
         <v>75</v>
       </c>
       <c r="U9" s="25" t="s">
-        <v>68</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="132" x14ac:dyDescent="0.25">
@@ -2821,7 +2824,7 @@
         <v>75</v>
       </c>
       <c r="U15" s="25" t="s">
-        <v>68</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="132" x14ac:dyDescent="0.25">
@@ -2984,7 +2987,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="132" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>120</v>
       </c>
@@ -3038,7 +3041,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>124</v>
       </c>
@@ -3195,7 +3198,7 @@
         <v>75</v>
       </c>
       <c r="U22" s="25" t="s">
-        <v>68</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="132" x14ac:dyDescent="0.25">
@@ -3621,7 +3624,7 @@
         <v>75</v>
       </c>
       <c r="U30" s="25" t="s">
-        <v>68</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="132" x14ac:dyDescent="0.25">
@@ -4086,7 +4089,7 @@
         <v>75</v>
       </c>
       <c r="U39" s="25" t="s">
-        <v>68</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
@@ -4641,7 +4644,7 @@
         <v>75</v>
       </c>
       <c r="U50" s="25" t="s">
-        <v>68</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="132" x14ac:dyDescent="0.25">
@@ -5168,7 +5171,7 @@
         <v>75</v>
       </c>
       <c r="U60" s="25" t="s">
-        <v>68</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="132" x14ac:dyDescent="0.25">
@@ -5753,7 +5756,7 @@
         <v>75</v>
       </c>
       <c r="U71" s="25" t="s">
-        <v>68</v>
+        <v>367</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="132" x14ac:dyDescent="0.25">
@@ -6226,7 +6229,7 @@
         <v>75</v>
       </c>
       <c r="U80" s="25" t="s">
-        <v>68</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="132" x14ac:dyDescent="0.25">
